--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>891443.0757931372</v>
+        <v>887258.2546439674</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33929867.94740183</v>
+        <v>33929867.94740184</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6463284.468165407</v>
+        <v>6463284.468165406</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4258810.826201078</v>
+        <v>4258810.826201077</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>147.7495491519708</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>187.4450760336518</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>134.2976968021818</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>127.6808152710662</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>288.1713322303306</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>181.9350240293727</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1782,10 +1782,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>19.70610221343547</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>235.2357689453457</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>406.0425331022053</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>233.0237371371537</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>85.1488807209173</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>52.7785420311759</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>396.8112906388914</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>147.749549151971</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>55.96684102370093</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>120.6971064205491</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>128.821064501477</v>
+        <v>43.11634511837994</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,10 +2411,10 @@
         <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H24" t="n">
-        <v>31.06956703172741</v>
+        <v>31.06956703172742</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.10999954803938</v>
+        <v>43.10999954803939</v>
       </c>
       <c r="T24" t="n">
         <v>124.5995722140058</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.01901167430094</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>49.66941363202091</v>
+        <v>16.13626634197964</v>
       </c>
       <c r="T25" t="n">
         <v>239.619400782111</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.62017337824726</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.1845183053605</v>
       </c>
       <c r="U26" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>48.48081719669405</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>71.22878194379544</v>
       </c>
     </row>
     <row r="27">
@@ -2648,10 +2648,10 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H27" t="n">
-        <v>31.06956703172741</v>
+        <v>31.06956703172742</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.10999954803938</v>
+        <v>43.10999954803939</v>
       </c>
       <c r="T27" t="n">
         <v>124.5995722140058</v>
@@ -2721,16 +2721,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>24.01310859250851</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>48.93154695867334</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>239.619400782111</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.62017337824726</v>
+        <v>35.71592250515032</v>
       </c>
       <c r="T29" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>238.5552737052439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H30" t="n">
-        <v>31.06956703172741</v>
+        <v>31.06956703172742</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.10999954803938</v>
+        <v>43.10999954803939</v>
       </c>
       <c r="T30" t="n">
         <v>124.5995722140058</v>
@@ -2958,16 +2958,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0457076940604</v>
       </c>
       <c r="H31" t="n">
-        <v>130.593315014692</v>
+        <v>111.0313132436449</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>17.71910483340255</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H32" t="n">
-        <v>265.9270524809863</v>
+        <v>14.50994818438809</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>50.47138879052864</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H33" t="n">
-        <v>31.06956703172741</v>
+        <v>31.06956703172742</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.10999954803938</v>
+        <v>43.10999954803939</v>
       </c>
       <c r="T33" t="n">
         <v>124.5995722140058</v>
@@ -3189,25 +3189,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>140.7097511059062</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0457076940604</v>
+        <v>82.55744481447387</v>
       </c>
       <c r="H34" t="n">
         <v>130.593315014692</v>
       </c>
       <c r="I34" t="n">
-        <v>61.01901167430094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>239.619400782111</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>263.7717449919908</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,13 +3277,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>180.0514094652379</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.62017337824726</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.471413082989</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H36" t="n">
-        <v>31.06956703172741</v>
+        <v>31.06956703172742</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.10999954803938</v>
+        <v>43.10999954803939</v>
       </c>
       <c r="T36" t="n">
         <v>124.5995722140058</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>165.8679032166332</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0457076940604</v>
+        <v>38.21077633130363</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>275.6001441286783</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>33.05991389663244</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3520,7 +3520,7 @@
         <v>395.4005208984156</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.62017337824726</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T38" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>71.9691357555442</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3596,10 +3596,10 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H39" t="n">
-        <v>31.06956703172741</v>
+        <v>31.06956703172742</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.10999954803938</v>
+        <v>43.10999954803939</v>
       </c>
       <c r="T39" t="n">
         <v>124.5995722140058</v>
@@ -3663,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>83.4682717359305</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>101.2975889580965</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3681,7 +3681,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.619400782111</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6001441286783</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>116.0398956116374</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.62017337824726</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.1845183053605</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>170.4247422372264</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,10 +3833,10 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H42" t="n">
-        <v>31.06956703172741</v>
+        <v>31.06956703172742</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.10999954803938</v>
+        <v>43.10999954803939</v>
       </c>
       <c r="T42" t="n">
         <v>124.5995722140058</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.89199599261062</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>156.8035762352493</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.619400782111</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.62017337824726</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>256.471413082989</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>12.95776766956232</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.70321723054511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H45" t="n">
-        <v>31.06956703172741</v>
+        <v>31.06956703172742</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.10999954803938</v>
+        <v>43.10999954803939</v>
       </c>
       <c r="T45" t="n">
         <v>124.5995722140058</v>
@@ -4155,7 +4155,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I46" t="n">
-        <v>61.01901167430094</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>275.6001441286783</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>72.72562249560379</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.78514342636413</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1536.329659438081</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="C11" t="n">
-        <v>1098.187186621504</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D11" t="n">
-        <v>1098.187186621504</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E11" t="n">
-        <v>664.4124417797993</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F11" t="n">
-        <v>236.5450121890071</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G11" t="n">
-        <v>236.5450121890071</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.329659438081</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.329659438081</v>
+        <v>1492.432620541497</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>992.2890823372272</v>
+        <v>992.2890823372263</v>
       </c>
       <c r="C13" t="n">
-        <v>856.6348431431041</v>
+        <v>819.7273708204513</v>
       </c>
       <c r="D13" t="n">
         <v>690.7568503446269</v>
@@ -5193,55 +5193,55 @@
         <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>477.6707703898317</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L13" t="n">
-        <v>601.5415720081296</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M13" t="n">
-        <v>1185.722647426444</v>
+        <v>997.5438780199984</v>
       </c>
       <c r="N13" t="n">
-        <v>1313.221559230334</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="V13" t="n">
-        <v>1928.945530822402</v>
+        <v>1928.945530822401</v>
       </c>
       <c r="W13" t="n">
-        <v>1656.919126408694</v>
+        <v>1656.919126408693</v>
       </c>
       <c r="X13" t="n">
-        <v>1411.527371742106</v>
+        <v>1411.527371742105</v>
       </c>
       <c r="Y13" t="n">
         <v>1184.107701056214</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1035.877686363847</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C14" t="n">
-        <v>744.7955325958366</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D14" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E14" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V14" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W14" t="n">
-        <v>1444.163810064194</v>
+        <v>2176.554825902915</v>
       </c>
       <c r="X14" t="n">
-        <v>1444.163810064194</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="Y14" t="n">
-        <v>1035.877686363847</v>
+        <v>1349.126238781879</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5348,13 +5348,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="C16" t="n">
-        <v>471.655226289377</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="D16" t="n">
-        <v>471.655226289377</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E16" t="n">
-        <v>471.655226289377</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>294.9481722511332</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>130.2069918636516</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5442,28 +5442,28 @@
         <v>289.4920009833859</v>
       </c>
       <c r="L16" t="n">
-        <v>413.3628026016839</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M16" t="n">
-        <v>997.5438780199987</v>
+        <v>997.5438780199984</v>
       </c>
       <c r="N16" t="n">
-        <v>1125.042789823888</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
@@ -5472,16 +5472,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1457.655295080539</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1185.628890666831</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>940.237136000243</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>712.8174653143512</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>916.8910812162151</v>
+        <v>1321.127738795813</v>
       </c>
       <c r="C17" t="n">
-        <v>916.8910812162151</v>
+        <v>1321.127738795813</v>
       </c>
       <c r="D17" t="n">
-        <v>480.9812963906596</v>
+        <v>885.2179539702574</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U17" t="n">
-        <v>2124.950065187986</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V17" t="n">
-        <v>1762.333115121812</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W17" t="n">
-        <v>1762.333115121812</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X17" t="n">
-        <v>1343.190651701123</v>
+        <v>1729.41386249616</v>
       </c>
       <c r="Y17" t="n">
-        <v>1343.190651701123</v>
+        <v>1321.127738795813</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,7 +5600,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
         <v>803.387703298788</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>843.5014354710338</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C19" t="n">
-        <v>670.9397239542587</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D19" t="n">
-        <v>505.0617311557814</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="E19" t="n">
-        <v>505.0617311557814</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="F19" t="n">
-        <v>328.3546771175377</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6134967300561</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
@@ -5679,19 +5679,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>744.992999204955</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>992.6864461505238</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954413</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>1035.320054190021</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>847.5287283633073</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="C20" t="n">
-        <v>847.5287283633073</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D20" t="n">
-        <v>446.7092428694776</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001349</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867026</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.256885969251</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2101.256885969251</v>
+        <v>2170.619238822159</v>
       </c>
       <c r="W20" t="n">
-        <v>2101.256885969251</v>
+        <v>2170.619238822159</v>
       </c>
       <c r="X20" t="n">
-        <v>1682.114422548562</v>
+        <v>1751.47677540147</v>
       </c>
       <c r="Y20" t="n">
-        <v>1273.828298848215</v>
+        <v>1343.190651701123</v>
       </c>
     </row>
     <row r="21">
@@ -5813,22 +5813,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.196554659879</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C22" t="n">
-        <v>856.6348431431041</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D22" t="n">
-        <v>690.7568503446269</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>520.9988465953642</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>289.4920009833859</v>
+        <v>358.0754347909395</v>
       </c>
       <c r="L22" t="n">
-        <v>756.0122647025507</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M22" t="n">
-        <v>1340.193340120866</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1467.692251924755</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.558898871145</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.532494457437</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1256.616225345771</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.196554659879</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1046.035042035393</v>
+        <v>1663.987587565888</v>
       </c>
       <c r="C23" t="n">
-        <v>607.8925692188168</v>
+        <v>1225.845114749311</v>
       </c>
       <c r="D23" t="n">
-        <v>607.8925692188168</v>
+        <v>789.9353299237555</v>
       </c>
       <c r="E23" t="n">
-        <v>607.8925692188168</v>
+        <v>789.9353299237555</v>
       </c>
       <c r="F23" t="n">
-        <v>180.0251396280245</v>
+        <v>362.0679003329632</v>
       </c>
       <c r="G23" t="n">
-        <v>49.90285225279528</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H23" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I23" t="n">
-        <v>125.1921461296501</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J23" t="n">
-        <v>291.8416560478776</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K23" t="n">
-        <v>541.6060719863831</v>
+        <v>541.6060719863826</v>
       </c>
       <c r="L23" t="n">
-        <v>851.4609156385214</v>
+        <v>851.4609156385209</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.234131838218</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N23" t="n">
-        <v>1546.586139125325</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O23" t="n">
-        <v>1877.41360479327</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P23" t="n">
-        <v>2159.767192776934</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q23" t="n">
-        <v>2371.80297844897</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R23" t="n">
-        <v>2495.142612639764</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S23" t="n">
-        <v>2495.142612639764</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T23" t="n">
-        <v>2495.142612639764</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="U23" t="n">
-        <v>2236.080579222603</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="V23" t="n">
-        <v>1873.463629156429</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="W23" t="n">
-        <v>1873.463629156429</v>
+        <v>2090.287158050795</v>
       </c>
       <c r="X23" t="n">
-        <v>1454.32116573574</v>
+        <v>2090.287158050795</v>
       </c>
       <c r="Y23" t="n">
-        <v>1046.035042035393</v>
+        <v>2090.287158050795</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G24" t="n">
-        <v>81.28625329494417</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H24" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I24" t="n">
-        <v>86.07360363779624</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J24" t="n">
-        <v>185.3289100816568</v>
+        <v>185.3289100816567</v>
       </c>
       <c r="K24" t="n">
-        <v>354.9720379468263</v>
+        <v>354.9720379468261</v>
       </c>
       <c r="L24" t="n">
-        <v>488.0955226008676</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M24" t="n">
-        <v>754.2846063602949</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N24" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O24" t="n">
-        <v>1277.474942253456</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P24" t="n">
-        <v>1478.086684138829</v>
+        <v>1573.069320161789</v>
       </c>
       <c r="Q24" t="n">
         <v>1612.190320866099</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>928.3554190919107</v>
+        <v>734.8076143555542</v>
       </c>
       <c r="C25" t="n">
-        <v>755.7937075751356</v>
+        <v>562.2459028387791</v>
       </c>
       <c r="D25" t="n">
-        <v>589.9157147766583</v>
+        <v>396.3679100403018</v>
       </c>
       <c r="E25" t="n">
-        <v>420.1577110273956</v>
+        <v>226.609906291039</v>
       </c>
       <c r="F25" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="G25" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="H25" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I25" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="J25" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969994</v>
       </c>
       <c r="K25" t="n">
-        <v>575.8386456160097</v>
+        <v>214.5005058801842</v>
       </c>
       <c r="L25" t="n">
-        <v>1124.993219091045</v>
+        <v>763.6550793552192</v>
       </c>
       <c r="M25" t="n">
-        <v>1263.056036695611</v>
+        <v>1361.201764140698</v>
       </c>
       <c r="N25" t="n">
-        <v>1397.836029083111</v>
+        <v>1938.240559685843</v>
       </c>
       <c r="O25" t="n">
-        <v>1780.557322929481</v>
+        <v>2296.256991764154</v>
       </c>
       <c r="P25" t="n">
-        <v>2234.587891748233</v>
+        <v>2402.780666612564</v>
       </c>
       <c r="Q25" t="n">
-        <v>2476.532137525728</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R25" t="n">
-        <v>2495.142612639764</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S25" t="n">
-        <v>2444.971487758934</v>
+        <v>2478.84335370847</v>
       </c>
       <c r="T25" t="n">
-        <v>2202.931688989125</v>
+        <v>2236.80355493866</v>
       </c>
       <c r="U25" t="n">
-        <v>1924.547705020763</v>
+        <v>1958.419570970299</v>
       </c>
       <c r="V25" t="n">
-        <v>1637.592196891194</v>
+        <v>1671.464062840729</v>
       </c>
       <c r="W25" t="n">
-        <v>1365.565792477485</v>
+        <v>1399.437658427021</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.174037810898</v>
+        <v>1154.045903760433</v>
       </c>
       <c r="Y25" t="n">
-        <v>1120.174037810898</v>
+        <v>926.6262330745412</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1156.052974947556</v>
+        <v>1785.597284327424</v>
       </c>
       <c r="C26" t="n">
-        <v>717.910502130979</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D26" t="n">
-        <v>717.910502130979</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="E26" t="n">
-        <v>717.910502130979</v>
+        <v>477.7702818435875</v>
       </c>
       <c r="F26" t="n">
-        <v>717.910502130979</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="G26" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="H26" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I26" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296498</v>
       </c>
       <c r="J26" t="n">
-        <v>291.8416560478767</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K26" t="n">
-        <v>541.6060719863822</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L26" t="n">
-        <v>851.4609156385205</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M26" t="n">
         <v>1196.234131838217</v>
@@ -6244,34 +6244,34 @@
         <v>1877.413604793269</v>
       </c>
       <c r="P26" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q26" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R26" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S26" t="n">
-        <v>2457.14243751022</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T26" t="n">
-        <v>2245.844944272482</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="U26" t="n">
-        <v>1986.782910855322</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="V26" t="n">
-        <v>1624.165960789148</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="W26" t="n">
-        <v>1575.195438368245</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="X26" t="n">
-        <v>1156.052974947556</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="Y26" t="n">
-        <v>1156.052974947556</v>
+        <v>2211.896854812332</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>544.6504508888737</v>
+        <v>544.6504508888738</v>
       </c>
       <c r="C27" t="n">
-        <v>438.193989725516</v>
+        <v>438.1939897255161</v>
       </c>
       <c r="D27" t="n">
         <v>343.1037008720693</v>
@@ -6299,37 +6299,37 @@
         <v>81.28625329494416</v>
       </c>
       <c r="H27" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I27" t="n">
-        <v>86.07360363779621</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J27" t="n">
-        <v>185.3289100816568</v>
+        <v>185.3289100816567</v>
       </c>
       <c r="K27" t="n">
-        <v>354.9720379468263</v>
+        <v>354.9720379468261</v>
       </c>
       <c r="L27" t="n">
-        <v>583.0781586238292</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M27" t="n">
-        <v>849.2672423832563</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N27" t="n">
         <v>1122.501559119456</v>
       </c>
       <c r="O27" t="n">
-        <v>1277.474942253456</v>
+        <v>1277.474942253457</v>
       </c>
       <c r="P27" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q27" t="n">
-        <v>1612.190320866098</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R27" t="n">
-        <v>1677.417474573878</v>
+        <v>1677.417474573879</v>
       </c>
       <c r="S27" t="n">
         <v>1633.87202048495</v>
@@ -6344,13 +6344,13 @@
         <v>1132.630321217342</v>
       </c>
       <c r="W27" t="n">
-        <v>947.3075669505361</v>
+        <v>947.3075669505363</v>
       </c>
       <c r="X27" t="n">
-        <v>792.4401311894161</v>
+        <v>792.4401311894162</v>
       </c>
       <c r="Y27" t="n">
-        <v>665.9543519686368</v>
+        <v>665.954351968637</v>
       </c>
     </row>
     <row r="28">
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>885.9103492944337</v>
+        <v>607.5263653260713</v>
       </c>
       <c r="C28" t="n">
-        <v>713.3486377776586</v>
+        <v>434.9646538092962</v>
       </c>
       <c r="D28" t="n">
-        <v>547.4706449791813</v>
+        <v>269.0866610108189</v>
       </c>
       <c r="E28" t="n">
-        <v>523.2149797342232</v>
+        <v>99.3286572615562</v>
       </c>
       <c r="F28" t="n">
-        <v>346.5079256959795</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="G28" t="n">
-        <v>181.815291661575</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="H28" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I28" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="J28" t="n">
-        <v>112.1724417969994</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K28" t="n">
-        <v>489.2589604513199</v>
+        <v>448.0258002147264</v>
       </c>
       <c r="L28" t="n">
-        <v>649.6734797194198</v>
+        <v>997.1803736897614</v>
       </c>
       <c r="M28" t="n">
-        <v>1247.220164504899</v>
+        <v>1594.72705847524</v>
       </c>
       <c r="N28" t="n">
-        <v>1824.258960050044</v>
+        <v>2171.765854020385</v>
       </c>
       <c r="O28" t="n">
-        <v>1948.750097793812</v>
+        <v>2296.256991764154</v>
       </c>
       <c r="P28" t="n">
-        <v>2402.780666612565</v>
+        <v>2402.780666612564</v>
       </c>
       <c r="Q28" t="n">
         <v>2476.532137525727</v>
       </c>
       <c r="R28" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S28" t="n">
         <v>2351.562104678987</v>
@@ -6417,19 +6417,19 @@
         <v>2109.522305909178</v>
       </c>
       <c r="U28" t="n">
-        <v>2109.522305909178</v>
+        <v>1831.138321940816</v>
       </c>
       <c r="V28" t="n">
-        <v>1822.566797779609</v>
+        <v>1544.182813811246</v>
       </c>
       <c r="W28" t="n">
-        <v>1550.5403933659</v>
+        <v>1272.156409397538</v>
       </c>
       <c r="X28" t="n">
-        <v>1305.148638699313</v>
+        <v>1026.76465473095</v>
       </c>
       <c r="Y28" t="n">
-        <v>1077.728968013421</v>
+        <v>799.3449840450585</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.8200699110769</v>
+        <v>2054.210468651653</v>
       </c>
       <c r="C29" t="n">
-        <v>483.6775970945001</v>
+        <v>1616.067995835077</v>
       </c>
       <c r="D29" t="n">
-        <v>483.6775970945001</v>
+        <v>1180.158211009521</v>
       </c>
       <c r="E29" t="n">
-        <v>49.90285225279528</v>
+        <v>746.3834661678161</v>
       </c>
       <c r="F29" t="n">
-        <v>49.90285225279528</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="G29" t="n">
-        <v>49.90285225279528</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H29" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I29" t="n">
-        <v>125.1921461296497</v>
+        <v>125.192146129649</v>
       </c>
       <c r="J29" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478764</v>
       </c>
       <c r="K29" t="n">
-        <v>541.6060719863826</v>
+        <v>541.6060719863817</v>
       </c>
       <c r="L29" t="n">
-        <v>851.4609156385212</v>
+        <v>851.4609156385199</v>
       </c>
       <c r="M29" t="n">
-        <v>1196.234131838217</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N29" t="n">
-        <v>1546.586139125325</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O29" t="n">
-        <v>1877.41360479327</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P29" t="n">
-        <v>2159.767192776934</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q29" t="n">
-        <v>2371.80297844897</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R29" t="n">
-        <v>2495.142612639764</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S29" t="n">
-        <v>2457.142437510221</v>
+        <v>2459.06592324062</v>
       </c>
       <c r="T29" t="n">
-        <v>2245.844944272483</v>
+        <v>2459.06592324062</v>
       </c>
       <c r="U29" t="n">
-        <v>1986.782910855323</v>
+        <v>2459.06592324062</v>
       </c>
       <c r="V29" t="n">
-        <v>1986.782910855323</v>
+        <v>2459.06592324062</v>
       </c>
       <c r="W29" t="n">
-        <v>1581.927456266356</v>
+        <v>2054.210468651653</v>
       </c>
       <c r="X29" t="n">
-        <v>1162.784992845667</v>
+        <v>2054.210468651653</v>
       </c>
       <c r="Y29" t="n">
-        <v>921.8200699110769</v>
+        <v>2054.210468651653</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>544.6504508888738</v>
+        <v>544.6504508888737</v>
       </c>
       <c r="C30" t="n">
-        <v>438.1939897255161</v>
+        <v>438.193989725516</v>
       </c>
       <c r="D30" t="n">
         <v>343.1037008720693</v>
@@ -6533,40 +6533,40 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G30" t="n">
-        <v>81.28625329494417</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H30" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I30" t="n">
-        <v>86.07360363779624</v>
+        <v>86.07360363779617</v>
       </c>
       <c r="J30" t="n">
-        <v>185.3289100816568</v>
+        <v>185.3289100816567</v>
       </c>
       <c r="K30" t="n">
-        <v>354.9720379468263</v>
+        <v>354.972037946826</v>
       </c>
       <c r="L30" t="n">
-        <v>583.0781586238292</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M30" t="n">
-        <v>754.2846063602949</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N30" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O30" t="n">
-        <v>1277.474942253456</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P30" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q30" t="n">
-        <v>1612.190320866099</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R30" t="n">
-        <v>1677.417474573879</v>
+        <v>1677.417474573878</v>
       </c>
       <c r="S30" t="n">
         <v>1633.87202048495</v>
@@ -6581,13 +6581,13 @@
         <v>1132.630321217342</v>
       </c>
       <c r="W30" t="n">
-        <v>947.3075669505363</v>
+        <v>947.3075669505361</v>
       </c>
       <c r="X30" t="n">
-        <v>792.4401311894162</v>
+        <v>792.4401311894161</v>
       </c>
       <c r="Y30" t="n">
-        <v>665.954351968637</v>
+        <v>665.9543519686368</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>861.6546840494756</v>
+        <v>834.9460360119622</v>
       </c>
       <c r="C31" t="n">
-        <v>689.0929725327005</v>
+        <v>662.3843244951871</v>
       </c>
       <c r="D31" t="n">
-        <v>523.2149797342232</v>
+        <v>496.5063316967098</v>
       </c>
       <c r="E31" t="n">
-        <v>523.2149797342232</v>
+        <v>326.7483279474471</v>
       </c>
       <c r="F31" t="n">
-        <v>346.5079256959795</v>
+        <v>326.7483279474471</v>
       </c>
       <c r="G31" t="n">
-        <v>181.8152916615751</v>
+        <v>162.0556939130427</v>
       </c>
       <c r="H31" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I31" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J31" t="n">
-        <v>112.1724417969994</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K31" t="n">
-        <v>214.5005058801843</v>
+        <v>214.5005058801841</v>
       </c>
       <c r="L31" t="n">
-        <v>521.2953228102201</v>
+        <v>577.5111244639792</v>
       </c>
       <c r="M31" t="n">
-        <v>659.3581404147864</v>
+        <v>1175.057809249458</v>
       </c>
       <c r="N31" t="n">
-        <v>1236.396935959931</v>
+        <v>1752.096604794603</v>
       </c>
       <c r="O31" t="n">
-        <v>1780.557322929481</v>
+        <v>2296.256991764153</v>
       </c>
       <c r="P31" t="n">
-        <v>2234.587891748233</v>
+        <v>2402.780666612563</v>
       </c>
       <c r="Q31" t="n">
-        <v>2476.532137525728</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R31" t="n">
-        <v>2495.142612639764</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S31" t="n">
-        <v>2351.562104678988</v>
+        <v>2351.562104678986</v>
       </c>
       <c r="T31" t="n">
-        <v>2109.522305909179</v>
+        <v>2109.522305909177</v>
       </c>
       <c r="U31" t="n">
-        <v>1831.138321940817</v>
+        <v>1831.138321940815</v>
       </c>
       <c r="V31" t="n">
-        <v>1544.182813811248</v>
+        <v>1544.182813811245</v>
       </c>
       <c r="W31" t="n">
-        <v>1526.284728120942</v>
+        <v>1272.156409397537</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.892973454354</v>
+        <v>1026.764654730949</v>
       </c>
       <c r="Y31" t="n">
-        <v>1053.473302768463</v>
+        <v>1026.764654730949</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1190.433254235305</v>
+        <v>1771.780833608151</v>
       </c>
       <c r="C32" t="n">
-        <v>752.2907814187288</v>
+        <v>1333.638360791575</v>
       </c>
       <c r="D32" t="n">
-        <v>752.2907814187288</v>
+        <v>897.728575966019</v>
       </c>
       <c r="E32" t="n">
-        <v>318.5160365770239</v>
+        <v>463.9538311243141</v>
       </c>
       <c r="F32" t="n">
-        <v>318.5160365770239</v>
+        <v>463.9538311243141</v>
       </c>
       <c r="G32" t="n">
-        <v>318.5160365770239</v>
+        <v>64.55936557035898</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I32" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J32" t="n">
-        <v>291.8416560478767</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K32" t="n">
-        <v>541.6060719863822</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L32" t="n">
-        <v>851.4609156385206</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M32" t="n">
         <v>1196.234131838217</v>
@@ -6718,34 +6718,34 @@
         <v>1877.413604793269</v>
       </c>
       <c r="P32" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q32" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R32" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S32" t="n">
-        <v>2495.142612639763</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="T32" t="n">
-        <v>2495.142612639763</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="U32" t="n">
-        <v>2444.161411841249</v>
+        <v>2198.080404093059</v>
       </c>
       <c r="V32" t="n">
-        <v>2444.161411841249</v>
+        <v>2198.080404093059</v>
       </c>
       <c r="W32" t="n">
-        <v>2444.161411841249</v>
+        <v>2198.080404093059</v>
       </c>
       <c r="X32" t="n">
-        <v>2025.01894842056</v>
+        <v>2198.080404093059</v>
       </c>
       <c r="Y32" t="n">
-        <v>1616.732824720213</v>
+        <v>2198.080404093059</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>544.6504508888737</v>
+        <v>544.6504508888738</v>
       </c>
       <c r="C33" t="n">
-        <v>438.193989725516</v>
+        <v>438.1939897255161</v>
       </c>
       <c r="D33" t="n">
         <v>343.1037008720693</v>
@@ -6773,37 +6773,37 @@
         <v>81.28625329494416</v>
       </c>
       <c r="H33" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I33" t="n">
-        <v>86.07360363779621</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J33" t="n">
-        <v>185.3289100816568</v>
+        <v>90.34627405869603</v>
       </c>
       <c r="K33" t="n">
-        <v>354.9720379468263</v>
+        <v>259.9894019238654</v>
       </c>
       <c r="L33" t="n">
-        <v>583.0781586238292</v>
+        <v>488.0955226008682</v>
       </c>
       <c r="M33" t="n">
-        <v>849.2672423832563</v>
+        <v>754.2846063602954</v>
       </c>
       <c r="N33" t="n">
         <v>1027.518923096495</v>
       </c>
       <c r="O33" t="n">
-        <v>1277.474942253456</v>
+        <v>1277.474942253457</v>
       </c>
       <c r="P33" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q33" t="n">
-        <v>1612.190320866098</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R33" t="n">
-        <v>1677.417474573878</v>
+        <v>1677.417474573879</v>
       </c>
       <c r="S33" t="n">
         <v>1633.87202048495</v>
@@ -6818,13 +6818,13 @@
         <v>1132.630321217342</v>
       </c>
       <c r="W33" t="n">
-        <v>947.3075669505361</v>
+        <v>947.3075669505363</v>
       </c>
       <c r="X33" t="n">
-        <v>792.4401311894161</v>
+        <v>792.4401311894162</v>
       </c>
       <c r="Y33" t="n">
-        <v>665.9543519686368</v>
+        <v>665.954351968637</v>
       </c>
     </row>
     <row r="34">
@@ -6834,55 +6834,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>885.9103492944337</v>
+        <v>607.5263653260713</v>
       </c>
       <c r="C34" t="n">
-        <v>885.9103492944337</v>
+        <v>434.9646538092962</v>
       </c>
       <c r="D34" t="n">
-        <v>720.0323564959564</v>
+        <v>434.9646538092962</v>
       </c>
       <c r="E34" t="n">
-        <v>550.2743527466937</v>
+        <v>265.2066500600335</v>
       </c>
       <c r="F34" t="n">
-        <v>408.1432910235562</v>
+        <v>265.2066500600335</v>
       </c>
       <c r="G34" t="n">
-        <v>243.4506569891518</v>
+        <v>181.815291661575</v>
       </c>
       <c r="H34" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I34" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="J34" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969994</v>
       </c>
       <c r="K34" t="n">
-        <v>414.3995524928287</v>
+        <v>489.2589604513198</v>
       </c>
       <c r="L34" t="n">
-        <v>963.5541259678638</v>
+        <v>1038.413533926355</v>
       </c>
       <c r="M34" t="n">
-        <v>1101.61694357243</v>
+        <v>1176.476351530921</v>
       </c>
       <c r="N34" t="n">
-        <v>1236.39693595993</v>
+        <v>1311.256343918421</v>
       </c>
       <c r="O34" t="n">
-        <v>1780.55732292948</v>
+        <v>1855.416730887971</v>
       </c>
       <c r="P34" t="n">
-        <v>2234.587891748232</v>
+        <v>2309.447299706723</v>
       </c>
       <c r="Q34" t="n">
         <v>2476.532137525727</v>
       </c>
       <c r="R34" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S34" t="n">
         <v>2351.562104678987</v>
@@ -6891,19 +6891,19 @@
         <v>2109.522305909178</v>
       </c>
       <c r="U34" t="n">
-        <v>2109.522305909178</v>
+        <v>1831.138321940816</v>
       </c>
       <c r="V34" t="n">
-        <v>1822.566797779609</v>
+        <v>1544.182813811246</v>
       </c>
       <c r="W34" t="n">
-        <v>1550.5403933659</v>
+        <v>1272.156409397538</v>
       </c>
       <c r="X34" t="n">
-        <v>1305.148638699313</v>
+        <v>1026.76465473095</v>
       </c>
       <c r="Y34" t="n">
-        <v>1077.728968013421</v>
+        <v>799.3449840450585</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1357.729854736632</v>
+        <v>2236.080579222601</v>
       </c>
       <c r="C35" t="n">
-        <v>919.5873819200556</v>
+        <v>1797.938106406024</v>
       </c>
       <c r="D35" t="n">
-        <v>483.6775970945001</v>
+        <v>1362.028321580468</v>
       </c>
       <c r="E35" t="n">
-        <v>49.90285225279526</v>
+        <v>928.2535767387635</v>
       </c>
       <c r="F35" t="n">
-        <v>49.90285225279526</v>
+        <v>500.3861471479713</v>
       </c>
       <c r="G35" t="n">
-        <v>49.90285225279526</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H35" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I35" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296488</v>
       </c>
       <c r="J35" t="n">
-        <v>291.8416560478767</v>
+        <v>291.8416560478763</v>
       </c>
       <c r="K35" t="n">
-        <v>541.6060719863822</v>
+        <v>541.6060719863816</v>
       </c>
       <c r="L35" t="n">
-        <v>851.4609156385206</v>
+        <v>851.4609156385199</v>
       </c>
       <c r="M35" t="n">
-        <v>1196.234131838217</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N35" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O35" t="n">
-        <v>1877.413604793269</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P35" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q35" t="n">
-        <v>2371.802978448969</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R35" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S35" t="n">
-        <v>2457.14243751022</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T35" t="n">
-        <v>2245.844944272482</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="U35" t="n">
-        <v>1986.782910855322</v>
+        <v>2236.080579222601</v>
       </c>
       <c r="V35" t="n">
-        <v>1624.165960789148</v>
+        <v>2236.080579222601</v>
       </c>
       <c r="W35" t="n">
-        <v>1624.165960789148</v>
+        <v>2236.080579222601</v>
       </c>
       <c r="X35" t="n">
-        <v>1624.165960789148</v>
+        <v>2236.080579222601</v>
       </c>
       <c r="Y35" t="n">
-        <v>1624.165960789148</v>
+        <v>2236.080579222601</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G36" t="n">
-        <v>81.28625329494416</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H36" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I36" t="n">
-        <v>49.90285225279526</v>
+        <v>86.07360363779617</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1581586966558</v>
+        <v>185.3289100816567</v>
       </c>
       <c r="K36" t="n">
-        <v>259.9894019238646</v>
+        <v>354.972037946826</v>
       </c>
       <c r="L36" t="n">
-        <v>488.0955226008674</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M36" t="n">
-        <v>754.2846063602947</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N36" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O36" t="n">
-        <v>1277.474942253456</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P36" t="n">
         <v>1478.086684138829</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>894.4818734556413</v>
+        <v>607.5263653260704</v>
       </c>
       <c r="C37" t="n">
-        <v>726.9385368731836</v>
+        <v>434.9646538092953</v>
       </c>
       <c r="D37" t="n">
-        <v>561.0605440747063</v>
+        <v>434.9646538092953</v>
       </c>
       <c r="E37" t="n">
-        <v>391.3025403254435</v>
+        <v>265.2066500600326</v>
       </c>
       <c r="F37" t="n">
-        <v>214.5954862871997</v>
+        <v>88.49959602178879</v>
       </c>
       <c r="G37" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H37" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I37" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J37" t="n">
         <v>198.7521269616892</v>
@@ -7107,40 +7107,40 @@
         <v>1263.056036695611</v>
       </c>
       <c r="N37" t="n">
-        <v>1656.066185185711</v>
+        <v>1397.836029083111</v>
       </c>
       <c r="O37" t="n">
-        <v>1780.55732292948</v>
+        <v>1780.557322929478</v>
       </c>
       <c r="P37" t="n">
-        <v>2234.587891748232</v>
+        <v>2234.587891748231</v>
       </c>
       <c r="Q37" t="n">
-        <v>2476.532137525727</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R37" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S37" t="n">
-        <v>2351.562104678987</v>
+        <v>2351.562104678986</v>
       </c>
       <c r="T37" t="n">
-        <v>2109.522305909178</v>
+        <v>2109.522305909177</v>
       </c>
       <c r="U37" t="n">
-        <v>1831.138321940816</v>
+        <v>1831.138321940815</v>
       </c>
       <c r="V37" t="n">
-        <v>1831.138321940816</v>
+        <v>1544.182813811245</v>
       </c>
       <c r="W37" t="n">
-        <v>1559.111917527108</v>
+        <v>1272.156409397537</v>
       </c>
       <c r="X37" t="n">
-        <v>1313.72016286052</v>
+        <v>1026.764654730949</v>
       </c>
       <c r="Y37" t="n">
-        <v>1086.300492174629</v>
+        <v>799.3449840450576</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1746.849277064803</v>
+        <v>2048.856313809873</v>
       </c>
       <c r="C38" t="n">
-        <v>1746.849277064803</v>
+        <v>2015.462461389032</v>
       </c>
       <c r="D38" t="n">
-        <v>1310.939492239248</v>
+        <v>1579.552676563476</v>
       </c>
       <c r="E38" t="n">
-        <v>877.1647473975427</v>
+        <v>1145.777931721771</v>
       </c>
       <c r="F38" t="n">
-        <v>449.2973178067504</v>
+        <v>717.910502130979</v>
       </c>
       <c r="G38" t="n">
-        <v>49.90285225279526</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H38" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1921461296499</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J38" t="n">
-        <v>291.8416560478774</v>
+        <v>291.8416560478767</v>
       </c>
       <c r="K38" t="n">
-        <v>541.6060719863829</v>
+        <v>541.6060719863821</v>
       </c>
       <c r="L38" t="n">
-        <v>851.4609156385212</v>
+        <v>851.4609156385203</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.234131838217</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N38" t="n">
-        <v>1546.586139125325</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O38" t="n">
-        <v>1877.41360479327</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P38" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q38" t="n">
-        <v>2371.80297844897</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R38" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S38" t="n">
-        <v>2457.142437510221</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T38" t="n">
-        <v>2245.844944272483</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="U38" t="n">
-        <v>2245.844944272483</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="V38" t="n">
-        <v>2245.844944272483</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="W38" t="n">
-        <v>2245.844944272483</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="X38" t="n">
-        <v>2173.148847549711</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="Y38" t="n">
-        <v>2173.148847549711</v>
+        <v>2048.856313809873</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G39" t="n">
-        <v>81.28625329494416</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H39" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I39" t="n">
-        <v>49.90285225279526</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J39" t="n">
-        <v>90.34627405869516</v>
+        <v>185.3289100816567</v>
       </c>
       <c r="K39" t="n">
-        <v>259.9894019238646</v>
+        <v>354.9720379468261</v>
       </c>
       <c r="L39" t="n">
-        <v>488.0955226008674</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M39" t="n">
-        <v>754.2846063602947</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N39" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O39" t="n">
-        <v>1277.474942253456</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P39" t="n">
         <v>1478.086684138829</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.5263653260722</v>
+        <v>1029.490857255208</v>
       </c>
       <c r="C40" t="n">
-        <v>523.2149797342232</v>
+        <v>856.929145738433</v>
       </c>
       <c r="D40" t="n">
-        <v>523.2149797342232</v>
+        <v>754.6083488110628</v>
       </c>
       <c r="E40" t="n">
-        <v>523.2149797342232</v>
+        <v>584.8503450618</v>
       </c>
       <c r="F40" t="n">
-        <v>346.5079256959795</v>
+        <v>408.1432910235562</v>
       </c>
       <c r="G40" t="n">
-        <v>181.8152916615751</v>
+        <v>243.4506569891518</v>
       </c>
       <c r="H40" t="n">
-        <v>49.90285225279526</v>
+        <v>111.538217580372</v>
       </c>
       <c r="I40" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J40" t="n">
-        <v>112.1724417969994</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K40" t="n">
-        <v>214.5005058801842</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L40" t="n">
-        <v>345.4451975872582</v>
+        <v>1124.993219091045</v>
       </c>
       <c r="M40" t="n">
-        <v>659.3581404147859</v>
+        <v>1263.056036695611</v>
       </c>
       <c r="N40" t="n">
-        <v>1236.396935959931</v>
+        <v>1397.836029083111</v>
       </c>
       <c r="O40" t="n">
-        <v>1780.55732292948</v>
+        <v>1780.557322929479</v>
       </c>
       <c r="P40" t="n">
-        <v>2234.587891748233</v>
+        <v>2234.587891748232</v>
       </c>
       <c r="Q40" t="n">
-        <v>2476.532137525728</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R40" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S40" t="n">
-        <v>2351.562104678988</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T40" t="n">
-        <v>2109.522305909179</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U40" t="n">
-        <v>1831.138321940817</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="V40" t="n">
-        <v>1544.182813811247</v>
+        <v>1966.147305740383</v>
       </c>
       <c r="W40" t="n">
-        <v>1272.156409397539</v>
+        <v>1694.120901326675</v>
       </c>
       <c r="X40" t="n">
-        <v>1026.764654730951</v>
+        <v>1448.729146660087</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.3449840450594</v>
+        <v>1221.309475974195</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1357.729854736632</v>
+        <v>1749.081965055824</v>
       </c>
       <c r="C41" t="n">
-        <v>919.5873819200556</v>
+        <v>1310.939492239248</v>
       </c>
       <c r="D41" t="n">
-        <v>483.6775970945001</v>
+        <v>1310.939492239248</v>
       </c>
       <c r="E41" t="n">
-        <v>49.90285225279528</v>
+        <v>877.1647473975427</v>
       </c>
       <c r="F41" t="n">
-        <v>49.90285225279528</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="G41" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="H41" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296498</v>
       </c>
       <c r="J41" t="n">
         <v>291.8416560478772</v>
       </c>
       <c r="K41" t="n">
-        <v>541.6060719863826</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L41" t="n">
-        <v>851.4609156385212</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M41" t="n">
         <v>1196.234131838217</v>
       </c>
       <c r="N41" t="n">
-        <v>1546.586139125325</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O41" t="n">
-        <v>1877.41360479327</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P41" t="n">
-        <v>2159.767192776934</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q41" t="n">
-        <v>2371.80297844897</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.142612639764</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S41" t="n">
-        <v>2457.142437510221</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T41" t="n">
-        <v>2245.844944272483</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="U41" t="n">
-        <v>2245.844944272483</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="V41" t="n">
-        <v>1883.22799420631</v>
+        <v>1921.228169335851</v>
       </c>
       <c r="W41" t="n">
-        <v>1883.22799420631</v>
+        <v>1921.228169335851</v>
       </c>
       <c r="X41" t="n">
-        <v>1883.22799420631</v>
+        <v>1749.081965055824</v>
       </c>
       <c r="Y41" t="n">
-        <v>1474.941870505963</v>
+        <v>1749.081965055824</v>
       </c>
     </row>
     <row r="42">
@@ -7481,31 +7481,31 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G42" t="n">
-        <v>81.28625329494417</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H42" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I42" t="n">
-        <v>86.07360363779624</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J42" t="n">
-        <v>90.34627405869527</v>
+        <v>185.3289100816567</v>
       </c>
       <c r="K42" t="n">
-        <v>259.9894019238647</v>
+        <v>354.9720379468261</v>
       </c>
       <c r="L42" t="n">
-        <v>488.0955226008676</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M42" t="n">
-        <v>754.2846063602949</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N42" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O42" t="n">
-        <v>1277.474942253456</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P42" t="n">
         <v>1478.086684138829</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.8076143555542</v>
+        <v>751.1068732868466</v>
       </c>
       <c r="C43" t="n">
-        <v>562.2459028387791</v>
+        <v>578.5451617700716</v>
       </c>
       <c r="D43" t="n">
-        <v>396.3679100403018</v>
+        <v>578.5451617700716</v>
       </c>
       <c r="E43" t="n">
-        <v>226.6099062910391</v>
+        <v>420.1577110273955</v>
       </c>
       <c r="F43" t="n">
-        <v>49.90285225279528</v>
+        <v>243.4506569891518</v>
       </c>
       <c r="G43" t="n">
-        <v>49.90285225279528</v>
+        <v>243.4506569891518</v>
       </c>
       <c r="H43" t="n">
-        <v>49.90285225279528</v>
+        <v>111.538217580372</v>
       </c>
       <c r="I43" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="J43" t="n">
-        <v>198.7521269616893</v>
+        <v>112.1724417969994</v>
       </c>
       <c r="K43" t="n">
-        <v>575.8386456160098</v>
+        <v>214.5005058801842</v>
       </c>
       <c r="L43" t="n">
-        <v>1124.993219091045</v>
+        <v>689.4880976745511</v>
       </c>
       <c r="M43" t="n">
-        <v>1263.056036695611</v>
+        <v>827.5509152791174</v>
       </c>
       <c r="N43" t="n">
-        <v>1397.836029083111</v>
+        <v>1404.589710824262</v>
       </c>
       <c r="O43" t="n">
-        <v>1780.557322929481</v>
+        <v>1948.750097793812</v>
       </c>
       <c r="P43" t="n">
-        <v>2234.587891748233</v>
+        <v>2402.780666612564</v>
       </c>
       <c r="Q43" t="n">
-        <v>2476.532137525728</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R43" t="n">
-        <v>2495.142612639764</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S43" t="n">
-        <v>2351.562104678988</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T43" t="n">
-        <v>2109.522305909179</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U43" t="n">
-        <v>1831.138321940817</v>
+        <v>1974.718829901591</v>
       </c>
       <c r="V43" t="n">
-        <v>1544.182813811248</v>
+        <v>1687.763321772022</v>
       </c>
       <c r="W43" t="n">
-        <v>1272.156409397539</v>
+        <v>1415.736917358313</v>
       </c>
       <c r="X43" t="n">
-        <v>1026.764654730952</v>
+        <v>1170.345162691726</v>
       </c>
       <c r="Y43" t="n">
-        <v>799.3449840450598</v>
+        <v>942.9254920058338</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.8200699110769</v>
+        <v>2184.99174988138</v>
       </c>
       <c r="C44" t="n">
-        <v>483.6775970945001</v>
+        <v>1746.849277064803</v>
       </c>
       <c r="D44" t="n">
-        <v>483.6775970945001</v>
+        <v>1310.939492239248</v>
       </c>
       <c r="E44" t="n">
-        <v>49.90285225279528</v>
+        <v>877.1647473975427</v>
       </c>
       <c r="F44" t="n">
-        <v>49.90285225279528</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="G44" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="H44" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I44" t="n">
-        <v>125.1921461296501</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J44" t="n">
-        <v>291.8416560478776</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K44" t="n">
-        <v>541.6060719863831</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L44" t="n">
-        <v>851.4609156385214</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.234131838218</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N44" t="n">
-        <v>1546.586139125325</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O44" t="n">
-        <v>1877.41360479327</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P44" t="n">
-        <v>2159.767192776934</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q44" t="n">
-        <v>2371.80297844897</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R44" t="n">
-        <v>2495.142612639764</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S44" t="n">
-        <v>2457.142437510221</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="T44" t="n">
-        <v>2457.142437510221</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="U44" t="n">
-        <v>2198.08040409306</v>
+        <v>2198.080404093059</v>
       </c>
       <c r="V44" t="n">
-        <v>2198.08040409306</v>
+        <v>2184.99174988138</v>
       </c>
       <c r="W44" t="n">
-        <v>1793.224949504094</v>
+        <v>2184.99174988138</v>
       </c>
       <c r="X44" t="n">
-        <v>1374.082486083404</v>
+        <v>2184.99174988138</v>
       </c>
       <c r="Y44" t="n">
-        <v>1348.119640395985</v>
+        <v>2184.99174988138</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G45" t="n">
-        <v>81.28625329494417</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H45" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I45" t="n">
-        <v>86.07360363779624</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J45" t="n">
-        <v>185.3289100816568</v>
+        <v>185.3289100816567</v>
       </c>
       <c r="K45" t="n">
-        <v>354.9720379468263</v>
+        <v>354.9720379468261</v>
       </c>
       <c r="L45" t="n">
-        <v>488.0955226008676</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M45" t="n">
-        <v>754.2846063602949</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N45" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O45" t="n">
-        <v>1277.474942253456</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P45" t="n">
         <v>1478.086684138829</v>
@@ -7803,52 +7803,52 @@
         <v>111.538217580372</v>
       </c>
       <c r="I46" t="n">
-        <v>49.90285225279528</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="J46" t="n">
         <v>112.1724417969994</v>
       </c>
       <c r="K46" t="n">
-        <v>489.2589604513199</v>
+        <v>214.5005058801842</v>
       </c>
       <c r="L46" t="n">
-        <v>1038.413533926355</v>
+        <v>577.5111244639801</v>
       </c>
       <c r="M46" t="n">
-        <v>1594.727058475242</v>
+        <v>1175.057809249459</v>
       </c>
       <c r="N46" t="n">
-        <v>2171.765854020387</v>
+        <v>1752.096604794604</v>
       </c>
       <c r="O46" t="n">
-        <v>2296.256991764155</v>
+        <v>2296.256991764154</v>
       </c>
       <c r="P46" t="n">
-        <v>2402.780666612566</v>
+        <v>2402.780666612564</v>
       </c>
       <c r="Q46" t="n">
-        <v>2476.532137525728</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R46" t="n">
-        <v>2495.142612639764</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S46" t="n">
-        <v>2351.562104678988</v>
+        <v>2351.562104678987</v>
       </c>
       <c r="T46" t="n">
-        <v>2109.522305909179</v>
+        <v>2109.522305909178</v>
       </c>
       <c r="U46" t="n">
-        <v>1831.138321940817</v>
+        <v>1831.138321940816</v>
       </c>
       <c r="V46" t="n">
-        <v>1544.182813811248</v>
+        <v>1831.138321940816</v>
       </c>
       <c r="W46" t="n">
-        <v>1544.182813811248</v>
+        <v>1757.678097197782</v>
       </c>
       <c r="X46" t="n">
-        <v>1298.79105914466</v>
+        <v>1512.286342531194</v>
       </c>
       <c r="Y46" t="n">
         <v>1284.866671845302</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>228.9222706564253</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>69.27619576520556</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,19 +9093,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>419.0018357134411</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>69.27619576520556</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>118.2717723303429</v>
+        <v>444.9969971592899</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9561,16 +9561,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>69.27619576520567</v>
       </c>
       <c r="L22" t="n">
-        <v>346.1105677786534</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>260.838541517779</v>
+        <v>235.8841356914568</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>148.4299082523762</v>
       </c>
       <c r="L28" t="n">
-        <v>29.76750258689492</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>177.6263891141028</v>
+        <v>234.4100271482031</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>114.4640014625804</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>94.27612818771831</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10755,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>260.8385415177781</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>260.8385415177768</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>177.6263891141025</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>260.8385415177777</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>347.5180808962556</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>260.838541517779</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,19 +11457,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>234.410027148204</v>
       </c>
       <c r="M46" t="n">
-        <v>422.4754615599199</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>286.0114989364401</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>79.57925990787683</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23320,13 +23320,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>36.53839759942548</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>36.53839759942637</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>145.5897158580804</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23512,7 +23512,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>218.8718760137043</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>111.3145178010418</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>48.8501841029281</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>23.39446429108244</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23785,13 +23785,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>23.45624742654746</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23901,16 +23901,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>89.79110277694403</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>78.24207798330136</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>34.73939633840848</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>211.2412314135407</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>122.2407306993725</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>266.5794563969387</v>
+        <v>352.2841757800356</v>
       </c>
       <c r="H23" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.62017337824726</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T23" t="n">
         <v>209.1845183053605</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24381,10 +24381,10 @@
         <v>163.0457076940604</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.4752892491465</v>
+        <v>126.0084365391878</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>352.326082846383</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>332.9744805195477</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>144.0473151192616</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>126.008436539188</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I28" t="n">
-        <v>61.01901167430094</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6001441286783</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H29" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.904250873096956</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>165.6479887580992</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>19.56200177104705</v>
       </c>
       <c r="I31" t="n">
-        <v>61.01901167430094</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>251.5870355361688</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>251.4171042965982</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.62017337824726</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.1845183053605</v>
       </c>
       <c r="U32" t="n">
-        <v>206.0000242924604</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>34.23023239195518</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>80.48826287958649</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6001441286783</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>158.2648297880679</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4005208984156</v>
+        <v>215.3491114331777</v>
       </c>
       <c r="H35" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>4.968191184974131</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>124.8349313627567</v>
       </c>
       <c r="H37" t="n">
         <v>130.593315014692</v>
       </c>
       <c r="I37" t="n">
-        <v>61.01901167430094</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>400.7011341917785</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U38" t="n">
         <v>256.471413082989</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>342.9819030309382</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>87.36782266567681</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>62.92162391239602</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.01901167430094</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>305.9966791684213</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>265.9270524809863</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>244.526296549256</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>126.0084365391866</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>11.25684747652085</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.0457076940604</v>
       </c>
       <c r="H43" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.01901167430094</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>265.9270524809863</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>346.0330128959494</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>378.500045232798</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>196.5805178739676</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.3603305526687</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>316691.662495013</v>
+        <v>316691.6624950128</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>316691.662495013</v>
+        <v>316691.6624950128</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>316691.6624950129</v>
+        <v>316691.6624950128</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>330947.9676164843</v>
+        <v>330947.9676164842</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>330947.9676164843</v>
+        <v>330947.9676164842</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>330947.9676164843</v>
+        <v>330947.9676164841</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>330947.9676164842</v>
+        <v>330947.9676164841</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>330947.9676164843</v>
+        <v>330947.9676164842</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>330947.9676164843</v>
+        <v>330947.9676164842</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>330947.9676164843</v>
+        <v>330947.9676164842</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>418707.7063118333</v>
+        <v>418707.7063118332</v>
       </c>
       <c r="C2" t="n">
-        <v>418707.7063118333</v>
+        <v>418707.7063118334</v>
       </c>
       <c r="D2" t="n">
-        <v>418707.7063118333</v>
+        <v>418707.7063118335</v>
       </c>
       <c r="E2" t="n">
         <v>251676.1140813077</v>
       </c>
       <c r="F2" t="n">
-        <v>251676.1140813078</v>
+        <v>251676.1140813077</v>
       </c>
       <c r="G2" t="n">
         <v>251676.1140813077</v>
       </c>
       <c r="H2" t="n">
-        <v>251676.1140813078</v>
+        <v>251676.1140813077</v>
       </c>
       <c r="I2" t="n">
-        <v>262836.1542014051</v>
+        <v>262836.1542014049</v>
       </c>
       <c r="J2" t="n">
-        <v>262836.154201405</v>
+        <v>262836.1542014049</v>
       </c>
       <c r="K2" t="n">
-        <v>262836.154201405</v>
+        <v>262836.1542014049</v>
       </c>
       <c r="L2" t="n">
-        <v>262836.154201405</v>
+        <v>262836.1542014049</v>
       </c>
       <c r="M2" t="n">
-        <v>262836.154201405</v>
+        <v>262836.1542014048</v>
       </c>
       <c r="N2" t="n">
-        <v>262836.154201405</v>
+        <v>262836.1542014049</v>
       </c>
       <c r="O2" t="n">
-        <v>262836.154201405</v>
+        <v>262836.1542014049</v>
       </c>
       <c r="P2" t="n">
-        <v>262836.154201405</v>
+        <v>262836.1542014049</v>
       </c>
     </row>
     <row r="3">
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29024.76432745962</v>
+        <v>29024.76432745934</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.372506196494215e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.0463989536</v>
       </c>
       <c r="F4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.0463989536</v>
       </c>
       <c r="G4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="H4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="I4" t="n">
-        <v>19318.41853135</v>
+        <v>19318.41853134999</v>
       </c>
       <c r="J4" t="n">
         <v>19318.41853134999</v>
       </c>
       <c r="K4" t="n">
-        <v>19318.41853135</v>
+        <v>19318.41853134998</v>
       </c>
       <c r="L4" t="n">
         <v>19318.41853134999</v>
       </c>
       <c r="M4" t="n">
+        <v>19318.41853134997</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19318.41853134998</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19318.41853134998</v>
+      </c>
+      <c r="P4" t="n">
         <v>19318.41853134999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19318.41853135</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19318.41853135</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19318.41853135</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>48681.2822074548</v>
+        <v>48681.28220745478</v>
       </c>
       <c r="J5" t="n">
-        <v>48681.28220745479</v>
+        <v>48681.28220745478</v>
       </c>
       <c r="K5" t="n">
-        <v>48681.28220745481</v>
+        <v>48681.28220745477</v>
       </c>
       <c r="L5" t="n">
-        <v>48681.28220745479</v>
+        <v>48681.28220745478</v>
       </c>
       <c r="M5" t="n">
-        <v>48681.28220745479</v>
+        <v>48681.28220745477</v>
       </c>
       <c r="N5" t="n">
-        <v>48681.2822074548</v>
+        <v>48681.28220745477</v>
       </c>
       <c r="O5" t="n">
-        <v>48681.28220745481</v>
+        <v>48681.28220745478</v>
       </c>
       <c r="P5" t="n">
-        <v>48681.28220745481</v>
+        <v>48681.28220745478</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86349.39000000054</v>
+        <v>86317.4832824988</v>
       </c>
       <c r="C6" t="n">
-        <v>86349.39000000048</v>
+        <v>86317.48328249897</v>
       </c>
       <c r="D6" t="n">
-        <v>86349.39000000054</v>
+        <v>86317.48328249903</v>
       </c>
       <c r="E6" t="n">
-        <v>-363804.2145179594</v>
+        <v>-364358.0949611814</v>
       </c>
       <c r="F6" t="n">
-        <v>187330.9864727163</v>
+        <v>186777.1060294943</v>
       </c>
       <c r="G6" t="n">
-        <v>187330.9864727163</v>
+        <v>186777.1060294943</v>
       </c>
       <c r="H6" t="n">
-        <v>187330.9864727163</v>
+        <v>186777.1060294944</v>
       </c>
       <c r="I6" t="n">
-        <v>165811.6891351407</v>
+        <v>165292.6838172942</v>
       </c>
       <c r="J6" t="n">
-        <v>194836.4534626002</v>
+        <v>194317.4481447535</v>
       </c>
       <c r="K6" t="n">
-        <v>194836.4534626002</v>
+        <v>194317.4481447534</v>
       </c>
       <c r="L6" t="n">
-        <v>194836.4534626005</v>
+        <v>194317.4481447536</v>
       </c>
       <c r="M6" t="n">
-        <v>47785.68506002876</v>
+        <v>47266.67974218204</v>
       </c>
       <c r="N6" t="n">
-        <v>194836.4534626002</v>
+        <v>194317.4481447535</v>
       </c>
       <c r="O6" t="n">
-        <v>194836.4534626002</v>
+        <v>194317.4481447535</v>
       </c>
       <c r="P6" t="n">
-        <v>194836.4534626002</v>
+        <v>194317.4481447535</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>493.3538759325871</v>
+        <v>493.3538759325869</v>
       </c>
       <c r="J3" t="n">
-        <v>493.3538759325871</v>
+        <v>493.3538759325869</v>
       </c>
       <c r="K3" t="n">
-        <v>493.3538759325872</v>
+        <v>493.3538759325869</v>
       </c>
       <c r="L3" t="n">
-        <v>493.3538759325871</v>
+        <v>493.3538759325869</v>
       </c>
       <c r="M3" t="n">
-        <v>493.3538759325871</v>
+        <v>493.3538759325869</v>
       </c>
       <c r="N3" t="n">
-        <v>493.3538759325871</v>
+        <v>493.3538759325869</v>
       </c>
       <c r="O3" t="n">
-        <v>493.3538759325872</v>
+        <v>493.3538759325869</v>
       </c>
       <c r="P3" t="n">
-        <v>493.3538759325872</v>
+        <v>493.3538759325869</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>623.7856531599409</v>
+        <v>623.7856531599406</v>
       </c>
       <c r="J4" t="n">
-        <v>623.7856531599407</v>
+        <v>623.7856531599406</v>
       </c>
       <c r="K4" t="n">
-        <v>623.7856531599409</v>
+        <v>623.7856531599404</v>
       </c>
       <c r="L4" t="n">
-        <v>623.7856531599407</v>
+        <v>623.7856531599406</v>
       </c>
       <c r="M4" t="n">
-        <v>623.7856531599407</v>
+        <v>623.7856531599404</v>
       </c>
       <c r="N4" t="n">
-        <v>623.7856531599408</v>
+        <v>623.7856531599405</v>
       </c>
       <c r="O4" t="n">
-        <v>623.7856531599409</v>
+        <v>623.7856531599406</v>
       </c>
       <c r="P4" t="n">
-        <v>623.7856531599409</v>
+        <v>623.7856531599406</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.65194783936596</v>
+        <v>26.65194783936568</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>33.70375879800667</v>
+        <v>33.70375879800645</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.332854886754435e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32323,28 +32323,28 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,7 +32545,7 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
         <v>34.56235976916781</v>
@@ -32557,7 +32557,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H22" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,10 +32651,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.983332164553113</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H23" t="n">
-        <v>20.31180053022957</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I23" t="n">
-        <v>76.46241327393395</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J23" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K23" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M23" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N23" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403485</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.1775612848851</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R23" t="n">
-        <v>124.5854890816096</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S23" t="n">
-        <v>45.1951816997541</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T23" t="n">
-        <v>8.682036550331254</v>
+        <v>8.682036550331251</v>
       </c>
       <c r="U23" t="n">
-        <v>0.158666573164249</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.061176261439905</v>
+        <v>1.061176261439904</v>
       </c>
       <c r="H24" t="n">
-        <v>10.24872863022224</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010198</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J24" t="n">
-        <v>100.2578852968289</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L24" t="n">
-        <v>134.4681663172135</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M24" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N24" t="n">
-        <v>275.9942593294952</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O24" t="n">
-        <v>252.4808274312741</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P24" t="n">
         <v>202.6381231165375</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.4582189164341</v>
+        <v>39.51616232758511</v>
       </c>
       <c r="R24" t="n">
-        <v>65.88601384624251</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S24" t="n">
-        <v>19.71088362806137</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T24" t="n">
-        <v>4.277285018698561</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06981422772630953</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.889654530370239</v>
+        <v>0.8896545303702386</v>
       </c>
       <c r="H25" t="n">
-        <v>7.909837551837222</v>
+        <v>7.909837551837218</v>
       </c>
       <c r="I25" t="n">
-        <v>26.75433805877047</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J25" t="n">
-        <v>62.8985752971759</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K25" t="n">
         <v>103.3616808921059</v>
@@ -32876,31 +32876,31 @@
         <v>132.2673653606808</v>
       </c>
       <c r="M25" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N25" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O25" t="n">
-        <v>125.7486239836044</v>
+        <v>125.7486239836043</v>
       </c>
       <c r="P25" t="n">
         <v>107.5996715640514</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.49643526582065</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R25" t="n">
-        <v>40.0021027928291</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S25" t="n">
-        <v>15.50425213381589</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T25" t="n">
-        <v>3.801251175218293</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04852661074746763</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.983332164553113</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H26" t="n">
-        <v>20.31180053022957</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I26" t="n">
-        <v>76.46241327393395</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K26" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M26" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403485</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.1775612848851</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R26" t="n">
-        <v>124.5854890816096</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S26" t="n">
-        <v>45.1951816997541</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T26" t="n">
-        <v>8.682036550331254</v>
+        <v>8.682036550331251</v>
       </c>
       <c r="U26" t="n">
-        <v>0.158666573164249</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.061176261439905</v>
+        <v>1.061176261439904</v>
       </c>
       <c r="H27" t="n">
-        <v>10.24872863022224</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010198</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J27" t="n">
-        <v>100.2578852968289</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L27" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M27" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N27" t="n">
-        <v>275.9942593294952</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O27" t="n">
-        <v>156.5387708424239</v>
+        <v>156.538770842425</v>
       </c>
       <c r="P27" t="n">
         <v>202.6381231165375</v>
@@ -33049,16 +33049,16 @@
         <v>135.4582189164341</v>
       </c>
       <c r="R27" t="n">
-        <v>65.88601384624251</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S27" t="n">
-        <v>19.71088362806137</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T27" t="n">
-        <v>4.277285018698561</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06981422772630953</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.889654530370239</v>
+        <v>0.8896545303702386</v>
       </c>
       <c r="H28" t="n">
-        <v>7.909837551837222</v>
+        <v>7.909837551837218</v>
       </c>
       <c r="I28" t="n">
-        <v>26.75433805877047</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J28" t="n">
-        <v>62.8985752971759</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K28" t="n">
         <v>103.3616808921059</v>
@@ -33113,31 +33113,31 @@
         <v>132.2673653606808</v>
       </c>
       <c r="M28" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N28" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O28" t="n">
-        <v>125.7486239836044</v>
+        <v>125.7486239836043</v>
       </c>
       <c r="P28" t="n">
         <v>107.5996715640514</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.49643526582065</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R28" t="n">
-        <v>40.0021027928291</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S28" t="n">
-        <v>15.50425213381589</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T28" t="n">
-        <v>3.801251175218293</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04852661074746763</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.983332164553113</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H29" t="n">
-        <v>20.31180053022957</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I29" t="n">
-        <v>76.46241327393396</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J29" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K29" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M29" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N29" t="n">
-        <v>353.8909164516236</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P29" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.1775612848851</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R29" t="n">
-        <v>124.5854890816096</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S29" t="n">
-        <v>45.1951816997541</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T29" t="n">
-        <v>8.682036550331256</v>
+        <v>8.682036550331251</v>
       </c>
       <c r="U29" t="n">
-        <v>0.158666573164249</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.061176261439905</v>
+        <v>1.061176261439904</v>
       </c>
       <c r="H30" t="n">
-        <v>10.24872863022224</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I30" t="n">
-        <v>36.53611251010198</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J30" t="n">
-        <v>100.2578852968289</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K30" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L30" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M30" t="n">
-        <v>172.9358057944099</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N30" t="n">
-        <v>275.9942593294952</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O30" t="n">
-        <v>252.4808274312741</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P30" t="n">
-        <v>202.6381231165376</v>
+        <v>106.6960665276881</v>
       </c>
       <c r="Q30" t="n">
         <v>135.4582189164341</v>
       </c>
       <c r="R30" t="n">
-        <v>65.88601384624252</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S30" t="n">
-        <v>19.71088362806137</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T30" t="n">
-        <v>4.277285018698561</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06981422772630953</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8896545303702391</v>
+        <v>0.8896545303702386</v>
       </c>
       <c r="H31" t="n">
-        <v>7.909837551837223</v>
+        <v>7.909837551837218</v>
       </c>
       <c r="I31" t="n">
-        <v>26.75433805877047</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J31" t="n">
-        <v>62.8985752971759</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K31" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L31" t="n">
-        <v>132.2673653606809</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M31" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N31" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O31" t="n">
-        <v>125.7486239836044</v>
+        <v>125.7486239836043</v>
       </c>
       <c r="P31" t="n">
         <v>107.5996715640514</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.49643526582066</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R31" t="n">
-        <v>40.00210279282911</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S31" t="n">
-        <v>15.50425213381589</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T31" t="n">
-        <v>3.801251175218293</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04852661074746764</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.983332164553113</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H32" t="n">
-        <v>20.31180053022957</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I32" t="n">
-        <v>76.46241327393395</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J32" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K32" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L32" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M32" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403485</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.1775612848851</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R32" t="n">
-        <v>124.5854890816096</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S32" t="n">
-        <v>45.1951816997541</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T32" t="n">
-        <v>8.682036550331254</v>
+        <v>8.682036550331251</v>
       </c>
       <c r="U32" t="n">
-        <v>0.158666573164249</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.061176261439905</v>
+        <v>1.061176261439904</v>
       </c>
       <c r="H33" t="n">
-        <v>10.24872863022224</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I33" t="n">
-        <v>36.53611251010198</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J33" t="n">
-        <v>100.2578852968289</v>
+        <v>4.315828707979648</v>
       </c>
       <c r="K33" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L33" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M33" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N33" t="n">
-        <v>180.052202740645</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O33" t="n">
-        <v>252.4808274312741</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P33" t="n">
         <v>202.6381231165375</v>
@@ -33523,16 +33523,16 @@
         <v>135.4582189164341</v>
       </c>
       <c r="R33" t="n">
-        <v>65.88601384624251</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S33" t="n">
-        <v>19.71088362806137</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T33" t="n">
-        <v>4.277285018698561</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06981422772630953</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.889654530370239</v>
+        <v>0.8896545303702386</v>
       </c>
       <c r="H34" t="n">
-        <v>7.909837551837222</v>
+        <v>7.909837551837218</v>
       </c>
       <c r="I34" t="n">
-        <v>26.75433805877047</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J34" t="n">
-        <v>62.8985752971759</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K34" t="n">
         <v>103.3616808921059</v>
@@ -33587,31 +33587,31 @@
         <v>132.2673653606808</v>
       </c>
       <c r="M34" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N34" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O34" t="n">
-        <v>125.7486239836044</v>
+        <v>125.7486239836043</v>
       </c>
       <c r="P34" t="n">
         <v>107.5996715640514</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.49643526582065</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R34" t="n">
-        <v>40.0021027928291</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S34" t="n">
-        <v>15.50425213381589</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T34" t="n">
-        <v>3.801251175218293</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04852661074746763</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.983332164553113</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H35" t="n">
-        <v>20.31180053022957</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I35" t="n">
-        <v>76.46241327393395</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J35" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K35" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L35" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M35" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N35" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403485</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.1775612848851</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R35" t="n">
-        <v>124.5854890816096</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S35" t="n">
-        <v>45.1951816997541</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T35" t="n">
-        <v>8.682036550331254</v>
+        <v>8.682036550331251</v>
       </c>
       <c r="U35" t="n">
-        <v>0.158666573164249</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.061176261439905</v>
+        <v>1.061176261439904</v>
       </c>
       <c r="H36" t="n">
-        <v>10.24872863022224</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J36" t="n">
-        <v>100.2578852968289</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9507507345543</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L36" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M36" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N36" t="n">
-        <v>275.9942593294952</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O36" t="n">
-        <v>252.4808274312741</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P36" t="n">
-        <v>202.6381231165375</v>
+        <v>106.6960665276881</v>
       </c>
       <c r="Q36" t="n">
         <v>135.4582189164341</v>
       </c>
       <c r="R36" t="n">
-        <v>65.88601384624251</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S36" t="n">
-        <v>19.71088362806137</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T36" t="n">
-        <v>4.277285018698561</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06981422772630953</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.889654530370239</v>
+        <v>0.8896545303702386</v>
       </c>
       <c r="H37" t="n">
-        <v>7.909837551837222</v>
+        <v>7.909837551837218</v>
       </c>
       <c r="I37" t="n">
-        <v>26.75433805877047</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J37" t="n">
-        <v>62.8985752971759</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K37" t="n">
         <v>103.3616808921059</v>
@@ -33824,31 +33824,31 @@
         <v>132.2673653606808</v>
       </c>
       <c r="M37" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N37" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O37" t="n">
-        <v>125.7486239836044</v>
+        <v>125.7486239836043</v>
       </c>
       <c r="P37" t="n">
         <v>107.5996715640514</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.49643526582065</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R37" t="n">
-        <v>40.0021027928291</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S37" t="n">
-        <v>15.50425213381589</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T37" t="n">
-        <v>3.801251175218293</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04852661074746763</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.983332164553113</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H38" t="n">
-        <v>20.31180053022957</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I38" t="n">
-        <v>76.46241327393395</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K38" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L38" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M38" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403485</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.1775612848851</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R38" t="n">
-        <v>124.5854890816096</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S38" t="n">
-        <v>45.1951816997541</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T38" t="n">
-        <v>8.682036550331254</v>
+        <v>8.682036550331251</v>
       </c>
       <c r="U38" t="n">
-        <v>0.158666573164249</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.061176261439905</v>
+        <v>1.061176261439904</v>
       </c>
       <c r="H39" t="n">
-        <v>10.24872863022224</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J39" t="n">
-        <v>40.8519412180807</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N39" t="n">
-        <v>275.9942593294952</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O39" t="n">
-        <v>252.4808274312741</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P39" t="n">
-        <v>202.6381231165375</v>
+        <v>106.6960665276881</v>
       </c>
       <c r="Q39" t="n">
         <v>135.4582189164341</v>
       </c>
       <c r="R39" t="n">
-        <v>65.88601384624251</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S39" t="n">
-        <v>19.71088362806137</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T39" t="n">
-        <v>4.277285018698561</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06981422772630953</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.889654530370239</v>
+        <v>0.8896545303702386</v>
       </c>
       <c r="H40" t="n">
-        <v>7.909837551837222</v>
+        <v>7.909837551837218</v>
       </c>
       <c r="I40" t="n">
-        <v>26.75433805877047</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J40" t="n">
-        <v>62.8985752971759</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K40" t="n">
         <v>103.3616808921059</v>
@@ -34061,31 +34061,31 @@
         <v>132.2673653606808</v>
       </c>
       <c r="M40" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N40" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O40" t="n">
-        <v>125.7486239836044</v>
+        <v>125.7486239836043</v>
       </c>
       <c r="P40" t="n">
         <v>107.5996715640514</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.49643526582065</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R40" t="n">
-        <v>40.0021027928291</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S40" t="n">
-        <v>15.50425213381589</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T40" t="n">
-        <v>3.801251175218293</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04852661074746763</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.983332164553113</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H41" t="n">
-        <v>20.31180053022957</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I41" t="n">
-        <v>76.46241327393396</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J41" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K41" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M41" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516236</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P41" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.1775612848851</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R41" t="n">
-        <v>124.5854890816096</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S41" t="n">
-        <v>45.1951816997541</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T41" t="n">
-        <v>8.682036550331256</v>
+        <v>8.682036550331251</v>
       </c>
       <c r="U41" t="n">
-        <v>0.158666573164249</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.061176261439905</v>
+        <v>1.061176261439904</v>
       </c>
       <c r="H42" t="n">
-        <v>10.24872863022224</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I42" t="n">
-        <v>36.53611251010198</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J42" t="n">
-        <v>4.315828707978824</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L42" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M42" t="n">
-        <v>268.87786238326</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N42" t="n">
-        <v>275.9942593294952</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O42" t="n">
-        <v>252.4808274312741</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P42" t="n">
-        <v>202.6381231165376</v>
+        <v>106.6960665276883</v>
       </c>
       <c r="Q42" t="n">
         <v>135.4582189164341</v>
       </c>
       <c r="R42" t="n">
-        <v>65.88601384624252</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S42" t="n">
-        <v>19.71088362806137</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T42" t="n">
-        <v>4.277285018698561</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06981422772630953</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8896545303702391</v>
+        <v>0.8896545303702386</v>
       </c>
       <c r="H43" t="n">
-        <v>7.909837551837223</v>
+        <v>7.909837551837218</v>
       </c>
       <c r="I43" t="n">
-        <v>26.75433805877047</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J43" t="n">
-        <v>62.8985752971759</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K43" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L43" t="n">
-        <v>132.2673653606809</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M43" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N43" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O43" t="n">
-        <v>125.7486239836044</v>
+        <v>125.7486239836043</v>
       </c>
       <c r="P43" t="n">
         <v>107.5996715640514</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.49643526582066</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R43" t="n">
-        <v>40.00210279282911</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S43" t="n">
-        <v>15.50425213381589</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T43" t="n">
-        <v>3.801251175218293</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04852661074746764</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.983332164553113</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H44" t="n">
-        <v>20.31180053022957</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I44" t="n">
-        <v>76.46241327393426</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J44" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K44" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M44" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516236</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P44" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.1775612848851</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R44" t="n">
-        <v>124.5854890816096</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S44" t="n">
-        <v>45.1951816997541</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T44" t="n">
-        <v>8.682036550331256</v>
+        <v>8.682036550331251</v>
       </c>
       <c r="U44" t="n">
-        <v>0.158666573164249</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.061176261439905</v>
+        <v>1.061176261439904</v>
       </c>
       <c r="H45" t="n">
-        <v>10.24872863022224</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I45" t="n">
-        <v>36.53611251010198</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J45" t="n">
-        <v>100.2578852968289</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K45" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L45" t="n">
-        <v>134.4681663172134</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M45" t="n">
-        <v>268.87786238326</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N45" t="n">
-        <v>275.9942593294952</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O45" t="n">
-        <v>252.4808274312741</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P45" t="n">
-        <v>202.6381231165376</v>
+        <v>106.6960665276883</v>
       </c>
       <c r="Q45" t="n">
         <v>135.4582189164341</v>
       </c>
       <c r="R45" t="n">
-        <v>65.88601384624252</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S45" t="n">
-        <v>19.71088362806137</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T45" t="n">
-        <v>4.277285018698561</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06981422772630953</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8896545303702391</v>
+        <v>0.8896545303702386</v>
       </c>
       <c r="H46" t="n">
-        <v>7.909837551837223</v>
+        <v>7.909837551837218</v>
       </c>
       <c r="I46" t="n">
-        <v>26.75433805877047</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J46" t="n">
-        <v>62.8985752971759</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K46" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L46" t="n">
-        <v>132.2673653606809</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M46" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N46" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O46" t="n">
-        <v>125.7486239836044</v>
+        <v>125.7486239836043</v>
       </c>
       <c r="P46" t="n">
         <v>107.5996715640514</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582066</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R46" t="n">
-        <v>40.00210279282911</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S46" t="n">
-        <v>15.50425213381589</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T46" t="n">
-        <v>3.801251175218293</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04852661074746764</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35421,13 +35421,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O13" t="n">
-        <v>347.8777063612351</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>139.7481869072822</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
-        <v>537.9572714182509</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>139.7481869072822</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35971,7 +35971,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -36044,22 +36044,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>250.19540095512</v>
+        <v>576.9206257840672</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
@@ -36120,16 +36120,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,13 +36138,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>167.0540751263756</v>
       </c>
       <c r="L22" t="n">
-        <v>471.232589615318</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
@@ -36299,7 +36299,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.04979179480254</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J23" t="n">
         <v>168.3328383012399</v>
@@ -36363,19 +36363,19 @@
         <v>252.2872888267732</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M23" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N23" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q23" t="n">
         <v>214.1775612848851</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010198</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J24" t="n">
-        <v>100.2578852968289</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L24" t="n">
-        <v>134.4681663172135</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M24" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N24" t="n">
-        <v>275.9942593294952</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O24" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P24" t="n">
-        <v>202.6381231165376</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.4582189164341</v>
+        <v>39.51616232758511</v>
       </c>
       <c r="R24" t="n">
         <v>65.88601384624258</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>150.3528027362566</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K25" t="n">
-        <v>380.8954733882024</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L25" t="n">
-        <v>554.7015893687224</v>
+        <v>554.7015893687222</v>
       </c>
       <c r="M25" t="n">
-        <v>139.4573915197639</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N25" t="n">
-        <v>136.1414064520204</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O25" t="n">
-        <v>386.5871655013834</v>
+        <v>361.6327596750612</v>
       </c>
       <c r="P25" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q25" t="n">
-        <v>244.3881270479746</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R25" t="n">
-        <v>18.79845971114726</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.04979179480254</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K26" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M26" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N26" t="n">
         <v>353.8909164516235</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q26" t="n">
         <v>214.1775612848851</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J27" t="n">
-        <v>100.2578852968289</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L27" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M27" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N27" t="n">
-        <v>275.9942593294952</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O27" t="n">
-        <v>156.5387708424239</v>
+        <v>156.538770842425</v>
       </c>
       <c r="P27" t="n">
-        <v>202.6381231165376</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q27" t="n">
         <v>135.4582189164341</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.8985752971759</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K28" t="n">
-        <v>380.8954733882025</v>
+        <v>251.791589144482</v>
       </c>
       <c r="L28" t="n">
-        <v>162.0348679475757</v>
+        <v>554.7015893687222</v>
       </c>
       <c r="M28" t="n">
-        <v>603.5825098843226</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N28" t="n">
         <v>582.867470247621</v>
@@ -36770,13 +36770,13 @@
         <v>125.7486239836044</v>
       </c>
       <c r="P28" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q28" t="n">
         <v>74.49643526582076</v>
       </c>
       <c r="R28" t="n">
-        <v>18.79845971114726</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.04979179480256</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J29" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K29" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577158</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M29" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N29" t="n">
         <v>353.8909164516235</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P29" t="n">
-        <v>285.2056444279438</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q29" t="n">
         <v>214.1775612848851</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>36.53611251010198</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J30" t="n">
-        <v>100.2578852968289</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K30" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L30" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M30" t="n">
-        <v>172.9358057944099</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N30" t="n">
-        <v>275.9942593294952</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O30" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P30" t="n">
-        <v>202.6381231165376</v>
+        <v>106.6960665276881</v>
       </c>
       <c r="Q30" t="n">
         <v>135.4582189164341</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>62.8985752971759</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K31" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L31" t="n">
-        <v>309.8937544747837</v>
+        <v>366.6773925088839</v>
       </c>
       <c r="M31" t="n">
-        <v>139.4573915197639</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N31" t="n">
         <v>582.867470247621</v>
@@ -37007,13 +37007,13 @@
         <v>549.6569565348987</v>
       </c>
       <c r="P31" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q31" t="n">
-        <v>244.3881270479746</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R31" t="n">
-        <v>18.79845971114727</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.04979179480254</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J32" t="n">
         <v>168.3328383012399</v>
       </c>
       <c r="K32" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L32" t="n">
-        <v>312.9846905577157</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M32" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N32" t="n">
         <v>353.8909164516235</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q32" t="n">
         <v>214.1775612848851</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J33" t="n">
-        <v>100.2578852968289</v>
+        <v>4.315828707979648</v>
       </c>
       <c r="K33" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L33" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M33" t="n">
         <v>268.8778623832599</v>
       </c>
       <c r="N33" t="n">
-        <v>180.052202740645</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O33" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P33" t="n">
-        <v>202.6381231165376</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q33" t="n">
         <v>135.4582189164341</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>150.3528027362566</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K34" t="n">
-        <v>217.8256823546863</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L34" t="n">
-        <v>554.7015893687224</v>
+        <v>554.7015893687222</v>
       </c>
       <c r="M34" t="n">
         <v>139.4573915197639</v>
@@ -37244,13 +37244,13 @@
         <v>549.6569565348987</v>
       </c>
       <c r="P34" t="n">
-        <v>458.6167361805583</v>
+        <v>458.6167361805581</v>
       </c>
       <c r="Q34" t="n">
-        <v>244.3881270479746</v>
+        <v>168.7725634535391</v>
       </c>
       <c r="R34" t="n">
-        <v>18.79845971114726</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.04979179480254</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J35" t="n">
         <v>168.3328383012399</v>
       </c>
       <c r="K35" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L35" t="n">
-        <v>312.9846905577157</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M35" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N35" t="n">
         <v>353.8909164516235</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q35" t="n">
         <v>214.1775612848851</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J36" t="n">
-        <v>100.2578852968289</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9507507345543</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L36" t="n">
         <v>230.4102229060634</v>
       </c>
       <c r="M36" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N36" t="n">
-        <v>275.9942593294952</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O36" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P36" t="n">
-        <v>202.6381231165376</v>
+        <v>106.6960665276881</v>
       </c>
       <c r="Q36" t="n">
         <v>135.4582189164341</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>150.3528027362566</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K37" t="n">
-        <v>380.8954733882024</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L37" t="n">
         <v>554.7015893687224</v>
@@ -37475,10 +37475,10 @@
         <v>139.4573915197639</v>
       </c>
       <c r="N37" t="n">
-        <v>396.9799479697986</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O37" t="n">
-        <v>125.7486239836044</v>
+        <v>386.5871655013812</v>
       </c>
       <c r="P37" t="n">
         <v>458.6167361805583</v>
@@ -37487,7 +37487,7 @@
         <v>244.3881270479746</v>
       </c>
       <c r="R37" t="n">
-        <v>18.79845971114726</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.04979179480254</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J38" t="n">
         <v>168.3328383012399</v>
       </c>
       <c r="K38" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L38" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M38" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N38" t="n">
         <v>353.8909164516235</v>
@@ -37560,7 +37560,7 @@
         <v>334.1691572403483</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q38" t="n">
         <v>214.1775612848851</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J39" t="n">
-        <v>40.8519412180807</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N39" t="n">
-        <v>275.9942593294952</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O39" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P39" t="n">
-        <v>202.6381231165376</v>
+        <v>106.6960665276881</v>
       </c>
       <c r="Q39" t="n">
         <v>135.4582189164341</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>62.89857529717589</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K40" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L40" t="n">
-        <v>132.2673653606808</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M40" t="n">
-        <v>317.0837806338664</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N40" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O40" t="n">
-        <v>549.6569565348987</v>
+        <v>386.5871655013821</v>
       </c>
       <c r="P40" t="n">
         <v>458.6167361805583</v>
       </c>
       <c r="Q40" t="n">
-        <v>244.3881270479746</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R40" t="n">
-        <v>18.79845971114726</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.04979179480256</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J41" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K41" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577158</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M41" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N41" t="n">
         <v>353.8909164516235</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P41" t="n">
-        <v>285.2056444279438</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q41" t="n">
         <v>214.1775612848851</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>36.53611251010198</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J42" t="n">
-        <v>4.315828707978824</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L42" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M42" t="n">
-        <v>268.87786238326</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N42" t="n">
-        <v>275.9942593294952</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O42" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P42" t="n">
-        <v>202.6381231165376</v>
+        <v>106.6960665276883</v>
       </c>
       <c r="Q42" t="n">
         <v>135.4582189164341</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>150.3528027362566</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K43" t="n">
-        <v>380.8954733882025</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L43" t="n">
-        <v>554.7015893687222</v>
+        <v>479.7854462569363</v>
       </c>
       <c r="M43" t="n">
         <v>139.4573915197639</v>
       </c>
       <c r="N43" t="n">
-        <v>136.1414064520204</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O43" t="n">
-        <v>386.5871655013834</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P43" t="n">
         <v>458.6167361805583</v>
       </c>
       <c r="Q43" t="n">
-        <v>244.3881270479746</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R43" t="n">
-        <v>18.79845971114727</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.04979179480286</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J44" t="n">
         <v>168.3328383012399</v>
       </c>
       <c r="K44" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M44" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N44" t="n">
         <v>353.8909164516235</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P44" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q44" t="n">
         <v>214.1775612848851</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.53611251010198</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J45" t="n">
-        <v>100.2578852968289</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K45" t="n">
-        <v>171.3566948133025</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L45" t="n">
-        <v>134.4681663172134</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M45" t="n">
-        <v>268.87786238326</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N45" t="n">
-        <v>275.9942593294952</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O45" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P45" t="n">
-        <v>202.6381231165376</v>
+        <v>106.6960665276883</v>
       </c>
       <c r="Q45" t="n">
         <v>135.4582189164341</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>62.8985752971759</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K46" t="n">
-        <v>380.8954733882025</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L46" t="n">
-        <v>554.7015893687224</v>
+        <v>366.6773925088847</v>
       </c>
       <c r="M46" t="n">
-        <v>561.9328530796838</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N46" t="n">
         <v>582.867470247621</v>
       </c>
       <c r="O46" t="n">
-        <v>125.7486239836044</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P46" t="n">
         <v>107.5996715640513</v>
@@ -38198,7 +38198,7 @@
         <v>74.49643526582076</v>
       </c>
       <c r="R46" t="n">
-        <v>18.79845971114727</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
